--- a/src/assets/map.xlsx
+++ b/src/assets/map.xlsx
@@ -450,7 +450,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AF1" sqref="AF1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="4">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="4">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="4">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
@@ -1547,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="4">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF12" s="4">
         <v>0</v>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="4">
         <v>0</v>
@@ -1826,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="AE14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="4">
         <v>0</v>
@@ -1903,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="4">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="4">
         <v>0</v>
@@ -1980,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
@@ -2028,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16" s="4">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="4">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="4">
         <v>0</v>
@@ -2257,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG18" s="4">
         <v>0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -2435,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="4">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="AF20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="4">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2509,19 +2509,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="4">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="AF21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="4">
         <v>0</v>

--- a/src/assets/map.xlsx
+++ b/src/assets/map.xlsx
@@ -450,7 +450,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AF1" sqref="AF1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
         <v>3</v>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1">
         <v>13</v>
@@ -522,34 +522,34 @@
         <v>19</v>
       </c>
       <c r="V1" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W1" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X1" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y1" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="Z1" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AA1" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="3">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AC1" s="3">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AD1" s="3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE1" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AF1" s="3">
         <v>30</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="4">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="S10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="4">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
@@ -1523,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="S11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
@@ -1547,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="4">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="4">
         <v>0</v>
@@ -1749,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="4">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -1826,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
@@ -1903,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
         <v>0</v>
@@ -1927,19 +1927,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15" s="4">
         <v>0</v>
@@ -1980,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
         <v>0</v>
@@ -2028,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="4">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="4">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="4">
         <v>0</v>
@@ -2257,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="4">
         <v>0</v>
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="4">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="4">
         <v>0</v>
@@ -2435,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="4">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2509,19 +2509,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="4">
         <v>0</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
